--- a/elements.xlsx
+++ b/elements.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MMC\fundamental\ch1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A48721-A537-4685-8552-A4810301526B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="262">
   <si>
     <t>AtomNr</t>
   </si>
@@ -41,6 +35,12 @@
     <t>RefNr</t>
   </si>
   <si>
+    <t>AtomicSize</t>
+  </si>
+  <si>
+    <t>CovalentRadius</t>
+  </si>
+  <si>
     <t>Symbol</t>
   </si>
   <si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
   <si>
     <t>MolarMass</t>
@@ -802,16 +805,13 @@
   </si>
   <si>
     <t xml:space="preserve"> The standard atomic weights of twelve elements having two or more stable isotopes have variability of atomic-weight values in natural terrestrial materials. These are given in table 1 as a separate file.</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,14 +874,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -928,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,27 +952,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,24 +986,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1205,16 +1161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1234,125 +1190,158 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0079800000000001</v>
+        <v>1.00798</v>
       </c>
       <c r="D2">
-        <v>1.0081100000000001</v>
+        <v>1.00811</v>
       </c>
       <c r="E2">
-        <v>1.0078400000000001</v>
+        <v>1.00784</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H2">
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.0026020000000004</v>
+        <v>4.002602</v>
       </c>
       <c r="D3">
-        <v>4.0026039999999998</v>
+        <v>4.002604</v>
       </c>
       <c r="E3">
-        <v>4.0026000000000002</v>
+        <v>4.0026</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.9669999999999996</v>
+        <v>6.967</v>
       </c>
       <c r="D4">
-        <v>6.9969999999999999</v>
+        <v>6.997</v>
       </c>
       <c r="E4">
-        <v>6.9379999999999997</v>
+        <v>6.938</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H4">
+        <v>167</v>
+      </c>
+      <c r="I4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9.0121830999999997</v>
+        <v>9.0121831</v>
       </c>
       <c r="D5">
-        <v>9.0121836000000002</v>
+        <v>9.0121836</v>
       </c>
       <c r="E5">
-        <v>9.0121825999999992</v>
+        <v>9.012182599999999</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H5">
+        <v>112</v>
+      </c>
+      <c r="I5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10.813000000000001</v>
+        <v>10.813</v>
       </c>
       <c r="D6">
         <v>10.821</v>
       </c>
       <c r="E6">
-        <v>10.805999999999999</v>
+        <v>10.806</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H6">
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1364,18 +1353,24 @@
         <v>12.0116</v>
       </c>
       <c r="E7">
-        <v>12.009600000000001</v>
+        <v>12.0096</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H7">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1390,15 +1385,21 @@
         <v>14.00643</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H8">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1410,41 +1411,53 @@
         <v>15.99977</v>
       </c>
       <c r="E9">
-        <v>15.999029999999999</v>
+        <v>15.99903</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>18.998403162999999</v>
+        <v>18.998403163</v>
       </c>
       <c r="D10">
-        <v>18.998403168999999</v>
+        <v>18.998403169</v>
       </c>
       <c r="E10">
-        <v>18.998403156999998</v>
+        <v>18.998403157</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1453,44 +1466,53 @@
         <v>20.1797</v>
       </c>
       <c r="D11">
-        <v>20.180299999999999</v>
+        <v>20.1803</v>
       </c>
       <c r="E11">
-        <v>20.179099999999998</v>
+        <v>20.1791</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="H11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22.989769280000001</v>
+        <v>22.98976928</v>
       </c>
       <c r="D12">
-        <v>22.989769299999999</v>
+        <v>22.9897693</v>
       </c>
       <c r="E12">
-        <v>22.989769259999999</v>
+        <v>22.98976926</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H12">
+        <v>190</v>
+      </c>
+      <c r="I12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1499,90 +1521,114 @@
         <v>24.305</v>
       </c>
       <c r="D13">
-        <v>24.306999999999999</v>
+        <v>24.307</v>
       </c>
       <c r="E13">
-        <v>24.303999999999998</v>
+        <v>24.304</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H13">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>26.981538400000002</v>
+        <v>26.9815384</v>
       </c>
       <c r="D14">
-        <v>26.981538700000002</v>
+        <v>26.9815387</v>
       </c>
       <c r="E14">
-        <v>26.981538100000002</v>
+        <v>26.9815381</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H14">
+        <v>118</v>
+      </c>
+      <c r="I14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>28.085000000000001</v>
+        <v>28.085</v>
       </c>
       <c r="D15">
-        <v>28.085999999999999</v>
+        <v>28.086</v>
       </c>
       <c r="E15">
         <v>28.084</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H15">
+        <v>111</v>
+      </c>
+      <c r="I15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>30.973761998000001</v>
+        <v>30.973761998</v>
       </c>
       <c r="D16">
-        <v>30.973762003000001</v>
+        <v>30.973762003</v>
       </c>
       <c r="E16">
         <v>30.973761993</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H16">
+        <v>98</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1591,205 +1637,256 @@
         <v>32.067</v>
       </c>
       <c r="D17">
-        <v>32.076000000000001</v>
+        <v>32.076</v>
       </c>
       <c r="E17">
-        <v>32.058999999999997</v>
+        <v>32.059</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H17">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>35.451000000000001</v>
+        <v>35.451</v>
       </c>
       <c r="D18">
-        <v>35.457000000000001</v>
+        <v>35.457</v>
       </c>
       <c r="E18">
-        <v>35.445999999999998</v>
+        <v>35.446</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H18">
+        <v>79</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>39.877000000000002</v>
+        <v>39.877</v>
       </c>
       <c r="D19">
-        <v>39.963000000000001</v>
+        <v>39.963</v>
       </c>
       <c r="E19">
-        <v>39.792000000000002</v>
+        <v>39.792</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>39.098300000000002</v>
+        <v>39.0983</v>
       </c>
       <c r="D20">
-        <v>39.098399999999998</v>
+        <v>39.0984</v>
       </c>
       <c r="E20">
-        <v>39.098199999999999</v>
+        <v>39.0982</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>40.078000000000003</v>
+        <v>40.078</v>
       </c>
       <c r="D21">
-        <v>40.082000000000001</v>
+        <v>40.082</v>
       </c>
       <c r="E21">
-        <v>40.073999999999998</v>
+        <v>40.074</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H21">
+        <v>194</v>
+      </c>
+      <c r="I21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>44.955908000000001</v>
+        <v>44.955908</v>
       </c>
       <c r="D22">
-        <v>44.955913000000002</v>
+        <v>44.955913</v>
       </c>
       <c r="E22">
-        <v>44.955902999999999</v>
+        <v>44.955903</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H22">
+        <v>184</v>
+      </c>
+      <c r="I22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>47.866999999999997</v>
+        <v>47.867</v>
       </c>
       <c r="D23">
-        <v>47.868000000000002</v>
+        <v>47.868</v>
       </c>
       <c r="E23">
         <v>47.866</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H23">
+        <v>176</v>
+      </c>
+      <c r="I23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>50.941499999999998</v>
+        <v>50.9415</v>
       </c>
       <c r="D24">
-        <v>50.941600000000001</v>
+        <v>50.9416</v>
       </c>
       <c r="E24">
-        <v>50.941400000000002</v>
+        <v>50.9414</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H24">
+        <v>171</v>
+      </c>
+      <c r="I24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>51.996099999999998</v>
+        <v>51.9961</v>
       </c>
       <c r="D25">
-        <v>51.996699999999997</v>
+        <v>51.9967</v>
       </c>
       <c r="E25">
         <v>51.9955</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H25">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1798,44 +1895,56 @@
         <v>54.938043</v>
       </c>
       <c r="D26">
-        <v>54.938045000000002</v>
+        <v>54.938045</v>
       </c>
       <c r="E26">
-        <v>54.938040999999998</v>
+        <v>54.938041</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H26">
+        <v>161</v>
+      </c>
+      <c r="I26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>55.844999999999999</v>
+        <v>55.845</v>
       </c>
       <c r="D27">
-        <v>55.847000000000001</v>
+        <v>55.847</v>
       </c>
       <c r="E27">
-        <v>55.843000000000004</v>
+        <v>55.843</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H27">
+        <v>156</v>
+      </c>
+      <c r="I27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1847,64 +1956,82 @@
         <v>58.933197</v>
       </c>
       <c r="E28">
-        <v>58.933191000000001</v>
+        <v>58.933191</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H28">
+        <v>152</v>
+      </c>
+      <c r="I28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>58.693399999999997</v>
+        <v>58.6934</v>
       </c>
       <c r="D29">
-        <v>58.693800000000003</v>
+        <v>58.6938</v>
       </c>
       <c r="E29">
-        <v>58.692999999999998</v>
+        <v>58.693</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="H29">
+        <v>149</v>
+      </c>
+      <c r="I29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>63.545999999999999</v>
+        <v>63.546</v>
       </c>
       <c r="D30">
-        <v>63.548999999999999</v>
+        <v>63.549</v>
       </c>
       <c r="E30">
-        <v>63.542999999999999</v>
+        <v>63.543</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="H30">
+        <v>145</v>
+      </c>
+      <c r="I30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1913,44 +2040,56 @@
         <v>65.38</v>
       </c>
       <c r="D31">
-        <v>65.400000000000006</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E31">
         <v>65.36</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="H31">
+        <v>142</v>
+      </c>
+      <c r="I31">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>69.722999999999999</v>
+        <v>69.723</v>
       </c>
       <c r="D32">
-        <v>69.724000000000004</v>
+        <v>69.724</v>
       </c>
       <c r="E32">
-        <v>69.721999999999994</v>
+        <v>69.72199999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H32">
+        <v>136</v>
+      </c>
+      <c r="I32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1959,136 +2098,169 @@
         <v>72.63</v>
       </c>
       <c r="D33">
-        <v>72.638000000000005</v>
+        <v>72.63800000000001</v>
       </c>
       <c r="E33">
         <v>72.622</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H33">
+        <v>125</v>
+      </c>
+      <c r="I33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34">
-        <v>74.921594999999996</v>
+        <v>74.921595</v>
       </c>
       <c r="D34">
-        <v>74.921600999999995</v>
+        <v>74.921601</v>
       </c>
       <c r="E34">
-        <v>74.921588999999997</v>
+        <v>74.921589</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H34">
+        <v>114</v>
+      </c>
+      <c r="I34">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35">
-        <v>78.971000000000004</v>
+        <v>78.971</v>
       </c>
       <c r="D35">
-        <v>78.978999999999999</v>
+        <v>78.979</v>
       </c>
       <c r="E35">
-        <v>78.962999999999994</v>
+        <v>78.96299999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H35">
+        <v>103</v>
+      </c>
+      <c r="I35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36">
-        <v>79.903999999999996</v>
+        <v>79.904</v>
       </c>
       <c r="D36">
-        <v>79.906999999999996</v>
+        <v>79.907</v>
       </c>
       <c r="E36">
-        <v>79.900999999999996</v>
+        <v>79.901</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H36">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37">
-        <v>83.798000000000002</v>
+        <v>83.798</v>
       </c>
       <c r="D37">
         <v>83.8</v>
       </c>
       <c r="E37">
-        <v>83.796000000000006</v>
+        <v>83.79600000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="H37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38">
-        <v>85.467799999999997</v>
+        <v>85.4678</v>
       </c>
       <c r="D38">
-        <v>85.468100000000007</v>
+        <v>85.46810000000001</v>
       </c>
       <c r="E38">
-        <v>85.467500000000001</v>
+        <v>85.4675</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H38">
+        <v>265</v>
+      </c>
+      <c r="I38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2103,84 +2275,108 @@
         <v>87.61</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="H39">
+        <v>219</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>88.905839999999998</v>
+        <v>88.90584</v>
       </c>
       <c r="D40">
-        <v>88.905850000000001</v>
+        <v>88.90585</v>
       </c>
       <c r="E40">
-        <v>88.905829999999995</v>
+        <v>88.90582999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H40">
+        <v>212</v>
+      </c>
+      <c r="I40">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>91.224000000000004</v>
+        <v>91.224</v>
       </c>
       <c r="D41">
-        <v>91.225999999999999</v>
+        <v>91.226</v>
       </c>
       <c r="E41">
-        <v>91.221999999999994</v>
+        <v>91.22199999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H41">
+        <v>206</v>
+      </c>
+      <c r="I41">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>92.906369999999995</v>
+        <v>92.90637</v>
       </c>
       <c r="D42">
-        <v>92.906379999999999</v>
+        <v>92.90638</v>
       </c>
       <c r="E42">
-        <v>92.906360000000006</v>
+        <v>92.90636000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H42">
+        <v>198</v>
+      </c>
+      <c r="I42">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -2189,21 +2385,27 @@
         <v>95.95</v>
       </c>
       <c r="D43">
-        <v>95.96</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="E43">
         <v>95.94</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H43">
+        <v>190</v>
+      </c>
+      <c r="I43">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -2212,15 +2414,21 @@
         <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="H44">
+        <v>183</v>
+      </c>
+      <c r="I44">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2235,15 +2443,21 @@
         <v>101.05</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H45">
+        <v>178</v>
+      </c>
+      <c r="I45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -2252,21 +2466,27 @@
         <v>102.90549</v>
       </c>
       <c r="D46">
-        <v>102.90551000000001</v>
+        <v>102.90551</v>
       </c>
       <c r="E46">
-        <v>102.90546999999999</v>
+        <v>102.90547</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H46">
+        <v>173</v>
+      </c>
+      <c r="I46">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -2281,15 +2501,21 @@
         <v>106.41</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H47">
+        <v>169</v>
+      </c>
+      <c r="I47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -2298,21 +2524,27 @@
         <v>107.8682</v>
       </c>
       <c r="D48">
-        <v>107.86839999999999</v>
+        <v>107.8684</v>
       </c>
       <c r="E48">
-        <v>107.86799999999999</v>
+        <v>107.868</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H48">
+        <v>165</v>
+      </c>
+      <c r="I48">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -2321,21 +2553,27 @@
         <v>112.414</v>
       </c>
       <c r="D49">
-        <v>112.41800000000001</v>
+        <v>112.418</v>
       </c>
       <c r="E49">
         <v>112.41</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H49">
+        <v>161</v>
+      </c>
+      <c r="I49">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -2347,18 +2585,24 @@
         <v>114.819</v>
       </c>
       <c r="E50">
-        <v>114.81699999999999</v>
+        <v>114.817</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H50">
+        <v>156</v>
+      </c>
+      <c r="I50">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -2373,15 +2617,21 @@
         <v>118.703</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H51">
+        <v>145</v>
+      </c>
+      <c r="I51">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -2396,15 +2646,21 @@
         <v>121.759</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H52">
+        <v>133</v>
+      </c>
+      <c r="I52">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -2419,15 +2675,21 @@
         <v>127.57</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H53">
+        <v>123</v>
+      </c>
+      <c r="I53">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -2439,64 +2701,79 @@
         <v>126.9045</v>
       </c>
       <c r="E54">
-        <v>126.90443999999999</v>
+        <v>126.90444</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H54">
+        <v>115</v>
+      </c>
+      <c r="I54">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55">
-        <v>131.29300000000001</v>
+        <v>131.293</v>
       </c>
       <c r="D55">
-        <v>131.29900000000001</v>
+        <v>131.299</v>
       </c>
       <c r="E55">
-        <v>131.28700000000001</v>
+        <v>131.287</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="H55">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56">
-        <v>132.90545195999999</v>
+        <v>132.90545196</v>
       </c>
       <c r="D56">
-        <v>132.90545202000001</v>
+        <v>132.90545202</v>
       </c>
       <c r="E56">
         <v>132.9054519</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H56">
+        <v>298</v>
+      </c>
+      <c r="I56">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -2511,90 +2788,114 @@
         <v>137.32</v>
       </c>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H57">
+        <v>253</v>
+      </c>
+      <c r="I57">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58">
-        <v>138.90547000000001</v>
+        <v>138.90547</v>
       </c>
       <c r="D58">
         <v>138.90554</v>
       </c>
       <c r="E58">
-        <v>138.90539999999999</v>
+        <v>138.9054</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H58">
+        <v>226</v>
+      </c>
+      <c r="I58">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59">
-        <v>140.11600000000001</v>
+        <v>140.116</v>
       </c>
       <c r="D59">
-        <v>140.11699999999999</v>
+        <v>140.117</v>
       </c>
       <c r="E59">
-        <v>140.11500000000001</v>
+        <v>140.115</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G59" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H59">
+        <v>210</v>
+      </c>
+      <c r="I59">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60">
-        <v>140.90765999999999</v>
+        <v>140.90766</v>
       </c>
       <c r="D60">
         <v>140.90767</v>
       </c>
       <c r="E60">
-        <v>140.90764999999999</v>
+        <v>140.90765</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H60">
+        <v>247</v>
+      </c>
+      <c r="I60">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61">
-        <v>144.24199999999999</v>
+        <v>144.242</v>
       </c>
       <c r="D61">
         <v>144.245</v>
@@ -2603,15 +2904,21 @@
         <v>144.239</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H61">
+        <v>206</v>
+      </c>
+      <c r="I61">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -2620,21 +2927,27 @@
         <v>145</v>
       </c>
       <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <v>205</v>
+      </c>
+      <c r="I62">
         <v>185</v>
       </c>
-      <c r="G62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>150.36000000000001</v>
+        <v>150.36</v>
       </c>
       <c r="D63">
         <v>150.38</v>
@@ -2643,15 +2956,21 @@
         <v>150.34</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H63">
+        <v>238</v>
+      </c>
+      <c r="I63">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -2663,18 +2982,24 @@
         <v>151.965</v>
       </c>
       <c r="E64">
-        <v>151.96299999999999</v>
+        <v>151.963</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H64">
+        <v>231</v>
+      </c>
+      <c r="I64">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -2689,15 +3014,21 @@
         <v>157.22</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H65">
+        <v>233</v>
+      </c>
+      <c r="I65">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -2706,21 +3037,27 @@
         <v>158.925354</v>
       </c>
       <c r="D66">
-        <v>158.92536200000001</v>
+        <v>158.925362</v>
       </c>
       <c r="E66">
-        <v>158.92534599999999</v>
+        <v>158.925346</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H66">
+        <v>225</v>
+      </c>
+      <c r="I66">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -2735,15 +3072,21 @@
         <v>162.499</v>
       </c>
       <c r="F67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H67">
+        <v>228</v>
+      </c>
+      <c r="I67">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -2752,27 +3095,33 @@
         <v>164.930328</v>
       </c>
       <c r="D68">
-        <v>164.93033500000001</v>
+        <v>164.930335</v>
       </c>
       <c r="E68">
-        <v>164.93032099999999</v>
+        <v>164.930321</v>
       </c>
       <c r="F68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H68">
+        <v>226</v>
+      </c>
+      <c r="I68">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69">
-        <v>167.25899999999999</v>
+        <v>167.259</v>
       </c>
       <c r="D69">
         <v>167.262</v>
@@ -2781,21 +3130,27 @@
         <v>167.256</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H69">
+        <v>226</v>
+      </c>
+      <c r="I69">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70">
-        <v>168.93421799999999</v>
+        <v>168.934218</v>
       </c>
       <c r="D70">
         <v>168.934224</v>
@@ -2804,61 +3159,79 @@
         <v>168.934212</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H70">
+        <v>222</v>
+      </c>
+      <c r="I70">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>173.04499999999999</v>
+        <v>173.045</v>
       </c>
       <c r="D71">
-        <v>173.05500000000001</v>
+        <v>173.055</v>
       </c>
       <c r="E71">
         <v>173.035</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H71">
+        <v>222</v>
+      </c>
+      <c r="I71">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72">
-        <v>174.96680000000001</v>
+        <v>174.9668</v>
       </c>
       <c r="D72">
-        <v>174.96690000000001</v>
+        <v>174.9669</v>
       </c>
       <c r="E72">
         <v>174.9667</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H72">
+        <v>217</v>
+      </c>
+      <c r="I72">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -2873,15 +3246,21 @@
         <v>178.47</v>
       </c>
       <c r="F73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H73">
+        <v>208</v>
+      </c>
+      <c r="I73">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -2893,18 +3272,24 @@
         <v>180.9479</v>
       </c>
       <c r="E74">
-        <v>180.94785999999999</v>
+        <v>180.94786</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+      <c r="I74">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -2919,38 +3304,50 @@
         <v>183.83</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H75">
+        <v>193</v>
+      </c>
+      <c r="I75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>186.20699999999999</v>
+        <v>186.207</v>
       </c>
       <c r="D76">
         <v>186.208</v>
       </c>
       <c r="E76">
-        <v>186.20599999999999</v>
+        <v>186.206</v>
       </c>
       <c r="F76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H76">
+        <v>188</v>
+      </c>
+      <c r="I76">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -2965,38 +3362,50 @@
         <v>190.2</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="H77">
+        <v>185</v>
+      </c>
+      <c r="I77">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78">
-        <v>192.21700000000001</v>
+        <v>192.217</v>
       </c>
       <c r="D78">
-        <v>192.21899999999999</v>
+        <v>192.219</v>
       </c>
       <c r="E78">
         <v>192.215</v>
       </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H78">
+        <v>180</v>
+      </c>
+      <c r="I78">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -3005,50 +3414,62 @@
         <v>195.084</v>
       </c>
       <c r="D79">
-        <v>195.09299999999999</v>
+        <v>195.093</v>
       </c>
       <c r="E79">
-        <v>195.07499999999999</v>
+        <v>195.075</v>
       </c>
       <c r="F79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H79">
+        <v>177</v>
+      </c>
+      <c r="I79">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80">
-        <v>196.96656999999999</v>
+        <v>196.96657</v>
       </c>
       <c r="D80">
-        <v>196.96657400000001</v>
+        <v>196.966574</v>
       </c>
       <c r="E80">
         <v>196.966566</v>
       </c>
       <c r="F80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H80">
+        <v>174</v>
+      </c>
+      <c r="I80">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81">
-        <v>200.59200000000001</v>
+        <v>200.592</v>
       </c>
       <c r="D81">
         <v>200.595</v>
@@ -3057,38 +3478,50 @@
         <v>200.589</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H81">
+        <v>171</v>
+      </c>
+      <c r="I81">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82">
-        <v>204.38300000000001</v>
+        <v>204.383</v>
       </c>
       <c r="D82">
-        <v>204.38499999999999</v>
+        <v>204.385</v>
       </c>
       <c r="E82">
-        <v>204.38200000000001</v>
+        <v>204.382</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H82">
+        <v>156</v>
+      </c>
+      <c r="I82">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -3103,15 +3536,21 @@
         <v>207.1</v>
       </c>
       <c r="F83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="H83">
+        <v>154</v>
+      </c>
+      <c r="I83">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -3120,21 +3559,27 @@
         <v>208.9804</v>
       </c>
       <c r="D84">
-        <v>208.98041000000001</v>
+        <v>208.98041</v>
       </c>
       <c r="E84">
         <v>208.98039</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="H84">
+        <v>143</v>
+      </c>
+      <c r="I84">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -3143,15 +3588,21 @@
         <v>209</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="H85">
+        <v>135</v>
+      </c>
+      <c r="I85">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -3160,15 +3611,18 @@
         <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="H86">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -3177,15 +3631,18 @@
         <v>222</v>
       </c>
       <c r="F87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="H87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -3194,15 +3651,15 @@
         <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -3211,15 +3668,18 @@
         <v>226</v>
       </c>
       <c r="F89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I89">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -3228,15 +3688,18 @@
         <v>227</v>
       </c>
       <c r="F90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I90">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -3245,44 +3708,50 @@
         <v>232.0377</v>
       </c>
       <c r="D91">
-        <v>232.03809999999999</v>
+        <v>232.0381</v>
       </c>
       <c r="E91">
-        <v>232.03729999999999</v>
+        <v>232.0373</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G91" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="I91">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92">
-        <v>231.03587999999999</v>
+        <v>231.03588</v>
       </c>
       <c r="D92">
-        <v>231.03588999999999</v>
+        <v>231.03589</v>
       </c>
       <c r="E92">
-        <v>231.03586999999999</v>
+        <v>231.03587</v>
       </c>
       <c r="F92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I92">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -3291,21 +3760,24 @@
         <v>238.02891</v>
       </c>
       <c r="D93">
-        <v>238.02894000000001</v>
+        <v>238.02894</v>
       </c>
       <c r="E93">
-        <v>238.02887999999999</v>
+        <v>238.02888</v>
       </c>
       <c r="F93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="I93">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -3314,15 +3786,18 @@
         <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I94">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -3331,15 +3806,18 @@
         <v>244</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I95">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -3348,15 +3826,18 @@
         <v>243</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="I96">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -3365,15 +3846,15 @@
         <v>247</v>
       </c>
       <c r="F97" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -3382,15 +3863,15 @@
         <v>247</v>
       </c>
       <c r="F98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -3399,15 +3880,15 @@
         <v>251</v>
       </c>
       <c r="F99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -3416,15 +3897,15 @@
         <v>252</v>
       </c>
       <c r="F100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -3433,15 +3914,15 @@
         <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -3450,15 +3931,15 @@
         <v>258</v>
       </c>
       <c r="F102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -3467,15 +3948,15 @@
         <v>259</v>
       </c>
       <c r="F103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -3484,15 +3965,15 @@
         <v>262</v>
       </c>
       <c r="F104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -3501,15 +3982,15 @@
         <v>267</v>
       </c>
       <c r="F105" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -3518,15 +3999,15 @@
         <v>270</v>
       </c>
       <c r="F106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -3535,15 +4016,15 @@
         <v>269</v>
       </c>
       <c r="F107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G107" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -3552,15 +4033,15 @@
         <v>270</v>
       </c>
       <c r="F108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -3569,15 +4050,15 @@
         <v>270</v>
       </c>
       <c r="F109" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -3586,15 +4067,15 @@
         <v>278</v>
       </c>
       <c r="F110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G110" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -3603,15 +4084,15 @@
         <v>281</v>
       </c>
       <c r="F111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G111" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -3620,15 +4101,15 @@
         <v>281</v>
       </c>
       <c r="F112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -3637,15 +4118,15 @@
         <v>285</v>
       </c>
       <c r="F113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -3654,15 +4135,15 @@
         <v>286</v>
       </c>
       <c r="F114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -3671,15 +4152,15 @@
         <v>289</v>
       </c>
       <c r="F115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -3688,15 +4169,15 @@
         <v>289</v>
       </c>
       <c r="F116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G116" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -3705,15 +4186,15 @@
         <v>293</v>
       </c>
       <c r="F117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -3722,15 +4203,15 @@
         <v>293</v>
       </c>
       <c r="F118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -3739,10 +4220,10 @@
         <v>294</v>
       </c>
       <c r="F119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3751,53 +4232,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
